--- a/biology/Médecine/Hypospermie/Hypospermie.xlsx
+++ b/biology/Médecine/Hypospermie/Hypospermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hypospermie est un terme médical caractérisant une éjaculation de sperme de volume inférieur à 1,5 ml chez l'homme[1] alors qu'une éjaculation normale correspond à environ 2 à 6 ml d'éjaculation
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hypospermie est un terme médical caractérisant une éjaculation de sperme de volume inférieur à 1,5 ml chez l'homme alors qu'une éjaculation normale correspond à environ 2 à 6 ml d'éjaculation
 Cela peut être dû au fait que l'homme ait déjà éjaculé peu de temps avant cette nouvelle éjaculation.
 La conséquence de l'hypospermie est généralement une fertilité diminuée, voire la stérilité. Ceci d'autant plus qu'en cas d'hypospermie, le sperme est le plus souvent de mauvaise qualité.
 </t>
@@ -513,7 +525,9 @@
           <t>Causes de l'hypospermie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypospermie peut être causée par une prostatite. Elle se traite alors habituellement par antibiothérapie voire par phagothérapie dans les pays de l'ex bloc de l'est.
 Les autres causes comprennent :
